--- a/Assets/StreamingAssets/Blood.xlsx
+++ b/Assets/StreamingAssets/Blood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6974E950-9CFA-684F-ACAC-F609C1C2A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B94FDE-B94D-C24B-BFEB-2E08A8139BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,43 +86,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DialogueVocal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HistoryAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoundEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appearAt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueVocal</t>
-  </si>
-  <si>
-    <t>Lee-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Investigate2</t>
@@ -150,6 +138,46 @@
   </si>
   <si>
     <t>StoryScript14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Determined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon re-examining the area near the main door, we found tiny traces of blood on the threshold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Likely left at the same time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are only a few drops, very faint, but the color and condition match the pool on the ground——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These must be the Lord’s bloodstains.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shape......it’s rather intriguing.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -602,53 +630,62 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="34">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="2">
         <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -656,16 +693,19 @@
     </row>
     <row r="4" spans="1:16" ht="17">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -673,60 +713,88 @@
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="17">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="17">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="17">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="17">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
